--- a/DIV3_ANALYSIS/ComparedResults/DIV3_ADAGOLINK_Tables.xlsx
+++ b/DIV3_ANALYSIS/ComparedResults/DIV3_ADAGOLINK_Tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\DIV3\ComparedResults\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neild\Desktop\DIV3\DIV3_ANALYSIS\ComparedResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE64F4CC-29E8-459F-AEFA-09F37869FA01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24DCE212-00A2-4DA8-B4A0-715ACD4BC8DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4110" yWindow="4110" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StdByPayHrsComparison" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="9">
   <si>
     <t>PARTNER</t>
   </si>
@@ -39,7 +39,13 @@
     <t>BOM TRANSPORTATION</t>
   </si>
   <si>
+    <t>GRAND TOUR TRANSPORTATION</t>
+  </si>
+  <si>
     <t>PICKUP PARTNERS LLC</t>
+  </si>
+  <si>
+    <t>TIFFANY MURDOCK</t>
   </si>
   <si>
     <t>UAD TRANSPORTATION</t>
@@ -65,12 +71,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -89,14 +95,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -437,13 +443,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="1" max="1" width="27.28515625" customWidth="1"/>
     <col min="2" max="2" width="8.28515625" customWidth="1"/>
     <col min="3" max="3" width="10.28515625" customWidth="1"/>
     <col min="4" max="4" width="8.28515625" customWidth="1"/>
@@ -468,13 +474,13 @@
         <v>4</v>
       </c>
       <c r="B2" s="2">
+        <v>78.73</v>
+      </c>
+      <c r="C2" s="2">
         <v>82.58</v>
       </c>
-      <c r="C2" s="2">
-        <v>81.099999999999994</v>
-      </c>
       <c r="D2" s="3">
-        <v>1.48</v>
+        <v>-3.85</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -482,13 +488,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="2">
-        <v>88.16</v>
+        <v>27.29</v>
       </c>
       <c r="C3" s="2">
-        <v>81.31</v>
-      </c>
-      <c r="D3" s="3">
-        <v>6.85</v>
+        <v>0</v>
+      </c>
+      <c r="D3" s="4">
+        <v>27.29</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -496,13 +502,41 @@
         <v>6</v>
       </c>
       <c r="B4" s="2">
+        <v>83.15</v>
+      </c>
+      <c r="C4" s="2">
+        <v>88.16</v>
+      </c>
+      <c r="D4" s="3">
+        <v>-5.01</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2">
+        <v>31.85</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
+        <v>31.85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2">
+        <v>78.88</v>
+      </c>
+      <c r="C6" s="2">
         <v>78.37</v>
       </c>
-      <c r="C4" s="2">
-        <v>80.63</v>
-      </c>
-      <c r="D4" s="4">
-        <v>-2.2599999999999998</v>
+      <c r="D6" s="4">
+        <v>0.51</v>
       </c>
     </row>
   </sheetData>
@@ -512,13 +546,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="1" max="1" width="27.28515625" customWidth="1"/>
     <col min="2" max="2" width="8.28515625" customWidth="1"/>
     <col min="3" max="3" width="10.28515625" customWidth="1"/>
     <col min="4" max="4" width="8.28515625" customWidth="1"/>
@@ -543,13 +577,13 @@
         <v>4</v>
       </c>
       <c r="B2" s="2">
+        <v>13.98</v>
+      </c>
+      <c r="C2" s="2">
         <v>24.07</v>
       </c>
-      <c r="C2" s="2">
-        <v>29.94</v>
-      </c>
-      <c r="D2" s="4">
-        <v>-5.88</v>
+      <c r="D2" s="3">
+        <v>-10.09</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -557,13 +591,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="2">
-        <v>16.64</v>
+        <v>0</v>
       </c>
       <c r="C3" s="2">
-        <v>14.61</v>
-      </c>
-      <c r="D3" s="3">
-        <v>2.0299999999999998</v>
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -571,12 +605,40 @@
         <v>6</v>
       </c>
       <c r="B4" s="2">
-        <v>0</v>
+        <v>22.9</v>
       </c>
       <c r="C4" s="2">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2">
+        <v>16.64</v>
+      </c>
+      <c r="D4" s="4">
+        <v>6.26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
         <v>0</v>
       </c>
     </row>
@@ -587,16 +649,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="1" max="1" width="27.28515625" customWidth="1"/>
     <col min="2" max="2" width="9.28515625" customWidth="1"/>
     <col min="3" max="3" width="10.28515625" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -618,13 +680,13 @@
         <v>4</v>
       </c>
       <c r="B2" s="2">
+        <v>2751.36</v>
+      </c>
+      <c r="C2" s="2">
         <v>3074.11</v>
       </c>
-      <c r="C2" s="2">
-        <v>3262.21</v>
-      </c>
-      <c r="D2" s="4">
-        <v>-188.1</v>
+      <c r="D2" s="3">
+        <v>-322.75</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -632,13 +694,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="2">
-        <v>2836.39</v>
+        <v>698.62</v>
       </c>
       <c r="C3" s="2">
-        <v>2771.41</v>
-      </c>
-      <c r="D3" s="3">
-        <v>64.98</v>
+        <v>0</v>
+      </c>
+      <c r="D3" s="4">
+        <v>698.62</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -646,12 +708,40 @@
         <v>6</v>
       </c>
       <c r="B4" s="2">
+        <v>3036.68</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2836.39</v>
+      </c>
+      <c r="D4" s="4">
+        <v>200.29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2">
+        <v>815.36</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
+        <v>815.36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2">
         <v>2304</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C6" s="2">
         <v>2304</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D6" s="2">
         <v>0</v>
       </c>
     </row>
